--- a/trunk/denapoli_bugs.xlsx
+++ b/trunk/denapoli_bugs.xlsx
@@ -456,8 +456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,28 +542,28 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
+    <row r="27" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
+    <row r="28" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
+    <row r="29" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C30" t="s">
+    <row r="30" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C31" t="s">
+    <row r="31" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -572,8 +572,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C35" t="s">
+    <row r="35" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -592,8 +592,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C41" t="s">
+    <row r="41" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C41" s="1" t="s">
         <v>26</v>
       </c>
     </row>
